--- a/Perk_data/data/passive_perks.xlsx
+++ b/Perk_data/data/passive_perks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre-Luc\Documents\GitHub\BattleBay_tool\Perk_data\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B946D1FB-A99D-4760-8A74-D78FF862E035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC49ECA7-2467-4189-97D3-48E4C8387D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5FD8951E-DB29-472A-BFC0-A522E648780D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5FD8951E-DB29-472A-BFC0-A522E648780D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,84 +45,24 @@
     <t>Perk</t>
   </si>
   <si>
-    <t>1st Bonus</t>
-  </si>
-  <si>
-    <t>2nd Bonus</t>
-  </si>
-  <si>
     <t>Rarity</t>
   </si>
   <si>
     <t>"Armor"_Shield_Hitpoints</t>
   </si>
   <si>
-    <t>150 HIT_POINT</t>
-  </si>
-  <si>
-    <t>12 DEFENCE</t>
-  </si>
-  <si>
     <t>"Brutal"_Shield_Hitpoints</t>
   </si>
   <si>
-    <t>2% DAMAGE</t>
-  </si>
-  <si>
     <t>"Brutal"_Turbo_Effect</t>
   </si>
   <si>
-    <t>20% SPEED</t>
-  </si>
-  <si>
     <t>"Vigor"_Repairing_Boost</t>
   </si>
   <si>
-    <t>6% HEALINGs</t>
-  </si>
-  <si>
-    <t>160 HIT_POINT</t>
-  </si>
-  <si>
     <t>"Vigor"_Turbo_Effect</t>
   </si>
   <si>
-    <t>100 HIT_POINT</t>
-  </si>
-  <si>
-    <t>1% DAMAGE</t>
-  </si>
-  <si>
-    <t>7 DEFENCE</t>
-  </si>
-  <si>
-    <t>120 HIT_POINT</t>
-  </si>
-  <si>
-    <t>2% HEALINGs</t>
-  </si>
-  <si>
-    <t>40 HIT_POINT</t>
-  </si>
-  <si>
-    <t>10% SPEED</t>
-  </si>
-  <si>
-    <t>15% SPEED</t>
-  </si>
-  <si>
-    <t>50 HIT_POINT</t>
-  </si>
-  <si>
-    <t>80 HIT_POINT</t>
-  </si>
-  <si>
-    <t>1.5% DAMAGE</t>
-  </si>
-  <si>
-    <t>0.5% DAMAGE</t>
-  </si>
-  <si>
     <t>uncommon</t>
   </si>
   <si>
@@ -142,6 +82,66 @@
   </si>
   <si>
     <t>big_bandage</t>
+  </si>
+  <si>
+    <t>1st-Bonus</t>
+  </si>
+  <si>
+    <t>2nd-Bonus</t>
+  </si>
+  <si>
+    <t>150-HIT_POINT</t>
+  </si>
+  <si>
+    <t>12-DEFENCE</t>
+  </si>
+  <si>
+    <t>2%-DAMAGE</t>
+  </si>
+  <si>
+    <t>20%-SPEED</t>
+  </si>
+  <si>
+    <t>6%-HEALINGs</t>
+  </si>
+  <si>
+    <t>160-HIT_POINT</t>
+  </si>
+  <si>
+    <t>1.5%-DAMAGE</t>
+  </si>
+  <si>
+    <t>120-HIT_POINT</t>
+  </si>
+  <si>
+    <t>100-HIT_POINT</t>
+  </si>
+  <si>
+    <t>7-DEFENCE</t>
+  </si>
+  <si>
+    <t>1%-DAMAGE</t>
+  </si>
+  <si>
+    <t>15%-SPEED</t>
+  </si>
+  <si>
+    <t>80-HIT_POINT</t>
+  </si>
+  <si>
+    <t>50-HIT_POINT</t>
+  </si>
+  <si>
+    <t>0.5%-DAMAGE</t>
+  </si>
+  <si>
+    <t>10%-SPEED</t>
+  </si>
+  <si>
+    <t>2%-HEALINGs</t>
+  </si>
+  <si>
+    <t>40-HIT_POINT</t>
   </si>
 </sst>
 </file>
@@ -853,7 +853,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -873,353 +873,353 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>8</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="E20" s="6" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">

--- a/Perk_data/data/passive_perks.xlsx
+++ b/Perk_data/data/passive_perks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre-Luc\Documents\GitHub\BattleBay_tool\Perk_data\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC49ECA7-2467-4189-97D3-48E4C8387D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA7EED3-AFCB-4220-9AA6-52BC99A5D6BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5FD8951E-DB29-472A-BFC0-A522E648780D}"/>
   </bookViews>
@@ -90,21 +90,12 @@
     <t>2nd-Bonus</t>
   </si>
   <si>
-    <t>150-HIT_POINT</t>
-  </si>
-  <si>
     <t>12-DEFENCE</t>
   </si>
   <si>
     <t>2%-DAMAGE</t>
   </si>
   <si>
-    <t>20%-SPEED</t>
-  </si>
-  <si>
-    <t>6%-HEALINGs</t>
-  </si>
-  <si>
     <t>160-HIT_POINT</t>
   </si>
   <si>
@@ -114,34 +105,43 @@
     <t>120-HIT_POINT</t>
   </si>
   <si>
-    <t>100-HIT_POINT</t>
-  </si>
-  <si>
     <t>7-DEFENCE</t>
   </si>
   <si>
     <t>1%-DAMAGE</t>
   </si>
   <si>
-    <t>15%-SPEED</t>
-  </si>
-  <si>
     <t>80-HIT_POINT</t>
   </si>
   <si>
-    <t>50-HIT_POINT</t>
-  </si>
-  <si>
     <t>0.5%-DAMAGE</t>
   </si>
   <si>
-    <t>10%-SPEED</t>
-  </si>
-  <si>
-    <t>2%-HEALINGs</t>
-  </si>
-  <si>
     <t>40-HIT_POINT</t>
+  </si>
+  <si>
+    <t>150-BASE_STAT</t>
+  </si>
+  <si>
+    <t>100-BASE_STAT</t>
+  </si>
+  <si>
+    <t>50-BASE_STAT</t>
+  </si>
+  <si>
+    <t>6%-BASE_STAT</t>
+  </si>
+  <si>
+    <t>2%-BASE_STAT</t>
+  </si>
+  <si>
+    <t>20%-BASE_STAT</t>
+  </si>
+  <si>
+    <t>15%-BASE_STAT</t>
+  </si>
+  <si>
+    <t>10%-BASE_STAT</t>
   </si>
 </sst>
 </file>
@@ -853,7 +853,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -890,10 +890,10 @@
         <v>3</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>11</v>
@@ -907,10 +907,10 @@
         <v>4</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>11</v>
@@ -924,10 +924,10 @@
         <v>5</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>11</v>
@@ -941,10 +941,10 @@
         <v>6</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>11</v>
@@ -958,10 +958,10 @@
         <v>7</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>11</v>
@@ -975,10 +975,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>17</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>18</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>10</v>
@@ -992,10 +992,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>10</v>
@@ -1009,10 +1009,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>10</v>
@@ -1026,10 +1026,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>10</v>
@@ -1043,10 +1043,10 @@
         <v>7</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>10</v>
@@ -1060,10 +1060,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>9</v>
@@ -1077,10 +1077,10 @@
         <v>4</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>9</v>
@@ -1094,10 +1094,10 @@
         <v>5</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>9</v>
@@ -1111,10 +1111,10 @@
         <v>6</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>9</v>
@@ -1128,10 +1128,10 @@
         <v>7</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>9</v>
@@ -1145,10 +1145,10 @@
         <v>3</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>8</v>
@@ -1162,10 +1162,10 @@
         <v>4</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>8</v>
@@ -1179,10 +1179,10 @@
         <v>5</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>8</v>
@@ -1196,10 +1196,10 @@
         <v>6</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>8</v>
@@ -1213,10 +1213,10 @@
         <v>7</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>8</v>

--- a/Perk_data/data/passive_perks.xlsx
+++ b/Perk_data/data/passive_perks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre-Luc\Documents\GitHub\BattleBay_tool\Perk_data\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA7EED3-AFCB-4220-9AA6-52BC99A5D6BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{885A8061-0F42-44DB-8AC3-FF7F68D465AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5FD8951E-DB29-472A-BFC0-A522E648780D}"/>
   </bookViews>
@@ -853,7 +853,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
